--- a/tests/NewApiBundle/Resources/exampleWingMoneyReport.xlsx
+++ b/tests/NewApiBundle/Resources/exampleWingMoneyReport.xlsx
@@ -361,17 +361,17 @@
   <dimension ref="A1:S1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
+      <selection pane="topLeft" activeCell="J9" activeCellId="0" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="8.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="10" style="0" width="10"/>
